--- a/PSP.xlsx
+++ b/PSP.xlsx
@@ -131,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,114 +158,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,19 +190,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,6 +220,87 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -324,6 +317,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,19 +377,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,43 +419,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,48 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -499,12 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,65 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -636,6 +570,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -650,157 +623,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1167,7 +1163,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1200,10 +1196,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" ht="44" customHeight="1" spans="1:4">
@@ -1216,7 +1212,9 @@
       <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -1226,9 +1224,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
@@ -1237,10 +1237,12 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>120</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3">
+        <v>180</v>
+      </c>
+      <c r="D5" s="3">
+        <v>480</v>
+      </c>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
@@ -1250,9 +1252,11 @@
         <v>13</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
@@ -1264,7 +1268,9 @@
       <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="34" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
@@ -1276,7 +1282,9 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="74" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
@@ -1285,10 +1293,12 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
@@ -1297,10 +1307,12 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>120</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
@@ -1310,9 +1322,11 @@
         <v>23</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="D11" s="3">
+        <v>180</v>
+      </c>
     </row>
     <row r="12" ht="51" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
@@ -1324,7 +1338,9 @@
       <c r="C12" s="2">
         <v>60</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" ht="46" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
@@ -1336,7 +1352,9 @@
       <c r="C13" s="2">
         <v>30</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" ht="50" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
@@ -1348,7 +1366,9 @@
       <c r="C14" s="2">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
@@ -1360,7 +1380,9 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:4">
       <c r="A16" s="2" t="s">
@@ -1369,17 +1391,27 @@
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>30</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="75" customHeight="1" spans="1:2">
+      <c r="D16" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="75" customHeight="1" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C2:C16)</f>
+        <v>705</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
